--- a/tests/violations_files/valid.xlsx
+++ b/tests/violations_files/valid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Олеся\Desktop\Цифровой прорыв\lonely-eye\tests\violations_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F96ED1D-E69D-46BA-96A4-799D8ED9A9AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0FEAF-8487-4F40-99B4-439F4C95EC51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Проезд на красный свет</t>
+  </si>
+  <si>
+    <t>1009cdcc-196b-45b1-baec-5e330cd213da</t>
   </si>
 </sst>
 </file>
@@ -387,11 +390,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -429,6 +433,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
